--- a/spliced/walkingToRunning/2023-03-27_19-44-36/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-44-36/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.54438255573141</v>
+        <v>7.460176270583601</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.265381188228204</v>
+        <v>1.940670852003414</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.278587345419258</v>
+        <v>-2.248238760849495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.460176270583601</v>
+        <v>7.05335301366344</v>
       </c>
       <c r="B3" t="n">
-        <v>1.940670852003414</v>
+        <v>1.372367842444078</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.248238760849495</v>
+        <v>-2.086995552326103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.05335301366344</v>
+        <v>10.34839492008603</v>
       </c>
       <c r="B4" t="n">
-        <v>1.372367842444078</v>
+        <v>0.2938980234079889</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.086995552326103</v>
+        <v>1.988064823479517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.34839492008603</v>
+        <v>13.00025196733149</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2938980234079889</v>
+        <v>5.53139660276216</v>
       </c>
       <c r="C5" t="n">
-        <v>1.988064823479517</v>
+        <v>-0.4643907300357014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13.00025196733149</v>
+        <v>14.22385301261109</v>
       </c>
       <c r="B6" t="n">
-        <v>5.53139660276216</v>
+        <v>6.654247678559409</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4643907300357014</v>
+        <v>-0.2390175523429294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.22385301261109</v>
+        <v>3.261832862064715</v>
       </c>
       <c r="B7" t="n">
-        <v>6.654247678559409</v>
+        <v>4.847148434868966</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2390175523429294</v>
+        <v>-3.660793435984526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.261832862064715</v>
+        <v>2.012637302793288</v>
       </c>
       <c r="B8" t="n">
-        <v>4.847148434868966</v>
+        <v>-7.111074842255716</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.660793435984526</v>
+        <v>3.683522890354033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.012637302793288</v>
+        <v>12.92323684692373</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.111074842255716</v>
+        <v>-4.288529297400908</v>
       </c>
       <c r="C9" t="n">
-        <v>3.683522890354033</v>
+        <v>-1.309652714893691</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.92323684692373</v>
+        <v>33.17913206692398</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.288529297400908</v>
+        <v>-49.48561506846823</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.309652714893691</v>
+        <v>-8.165793155801595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33.17913206692398</v>
+        <v>29.25954614836614</v>
       </c>
       <c r="B11" t="n">
-        <v>-49.48561506846823</v>
+        <v>-1.534980112108286</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.165793155801595</v>
+        <v>10.88253550693887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>29.25954614836614</v>
+        <v>8.380168257088386</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.534980112108286</v>
+        <v>-41.39767669809267</v>
       </c>
       <c r="C12" t="n">
-        <v>10.88253550693887</v>
+        <v>28.80079953423849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.380168257088386</v>
+        <v>-35.82913970947266</v>
       </c>
       <c r="B13" t="n">
-        <v>-41.39767669809267</v>
+        <v>-7.401230812072754</v>
       </c>
       <c r="C13" t="n">
-        <v>28.80079953423849</v>
+        <v>-22.76275253295898</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-35.82913970947266</v>
+        <v>-0.386668369687925</v>
       </c>
       <c r="B14" t="n">
-        <v>-7.401230812072754</v>
+        <v>6.335032199991126</v>
       </c>
       <c r="C14" t="n">
-        <v>-22.76275253295898</v>
+        <v>-3.633465668250821</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.386668369687925</v>
+        <v>-0.332839686295094</v>
       </c>
       <c r="B15" t="n">
-        <v>6.335032199991126</v>
+        <v>-6.914240393145466</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.633465668250821</v>
+        <v>-1.636375197048832</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.332839686295094</v>
+        <v>-1.074484512723721</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.914240393145466</v>
+        <v>-6.283810664867543</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.636375197048832</v>
+        <v>30.66327963204198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.074484512723721</v>
+        <v>4.744677149016312</v>
       </c>
       <c r="B17" t="n">
-        <v>-6.283810664867543</v>
+        <v>18.54307062872537</v>
       </c>
       <c r="C17" t="n">
-        <v>30.66327963204198</v>
+        <v>23.11713764585292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.744677149016312</v>
+        <v>40.11636086167968</v>
       </c>
       <c r="B18" t="n">
-        <v>18.54307062872537</v>
+        <v>-43.34975341270727</v>
       </c>
       <c r="C18" t="n">
-        <v>23.11713764585292</v>
+        <v>39.71557577725119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>40.11636086167968</v>
+        <v>8.228727192714175</v>
       </c>
       <c r="B19" t="n">
-        <v>-43.34975341270727</v>
+        <v>2.979075727791802</v>
       </c>
       <c r="C19" t="n">
-        <v>39.71557577725119</v>
+        <v>-10.42038246680967</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.228727192714175</v>
+        <v>8.725867090554029</v>
       </c>
       <c r="B20" t="n">
-        <v>2.979075727791802</v>
+        <v>5.052738584321171</v>
       </c>
       <c r="C20" t="n">
-        <v>-10.42038246680967</v>
+        <v>-5.431183058640126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.725867090554029</v>
+        <v>36.49437555773487</v>
       </c>
       <c r="B21" t="n">
-        <v>5.052738584321171</v>
+        <v>-39.19836583630763</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.431183058640126</v>
+        <v>36.29759532007652</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17.42426753866236</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-11.81626648738428</v>
+      </c>
+      <c r="C22" t="n">
+        <v>23.43557239400905</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>13.20562122608059</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-5.217379109612901</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.13059931787963</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-9.915741953356811</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.114933737393288</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5023386725059567</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-8.703923554256075</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.09582072290882</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-13.1394268562054</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.12605124506454</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-8.641085657580049</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.591965708239329</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-3.980940161080194</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-14.64417253691573</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.824098981660002</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7.344494918297197</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-4.105810165405226</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11.71896579347811</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22.1531091229668</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-10.78129972260548</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.93481448601038</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>16.40996650169633</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-8.967308833681265</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.306509708536076</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.831812381744486</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.093760391761203</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.286617870988547</v>
       </c>
     </row>
   </sheetData>
